--- a/data/pca/factorExposure/factorExposure_2018-09-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-09-11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.03692488101571386</v>
+        <v>0.03030512401151675</v>
       </c>
       <c r="C2">
-        <v>0.04777009242781621</v>
+        <v>-0.01206075255483706</v>
       </c>
       <c r="D2">
-        <v>0.03583024043292452</v>
+        <v>0.01098491805619005</v>
       </c>
       <c r="E2">
-        <v>0.05065931987098227</v>
+        <v>-0.01403575921139852</v>
       </c>
       <c r="F2">
-        <v>0.1510556031311102</v>
+        <v>0.02369203218824196</v>
       </c>
       <c r="G2">
-        <v>-0.06084522922677887</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.08137665764331069</v>
+      </c>
+      <c r="H2">
+        <v>-0.01424704613992411</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.1232109023269852</v>
+        <v>0.07642703155381551</v>
       </c>
       <c r="C3">
-        <v>0.008948829169689459</v>
+        <v>0.02031496145446849</v>
       </c>
       <c r="D3">
-        <v>0.04774252171226564</v>
+        <v>0.02167219870555505</v>
       </c>
       <c r="E3">
-        <v>0.09668602731505947</v>
+        <v>-0.008398775083567027</v>
       </c>
       <c r="F3">
-        <v>0.4201073221982936</v>
+        <v>-0.01055036404662894</v>
       </c>
       <c r="G3">
-        <v>-0.1720584843090894</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.2697667978874664</v>
+      </c>
+      <c r="H3">
+        <v>-0.03472764253237422</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.05226140213601596</v>
+        <v>0.04718677825231838</v>
       </c>
       <c r="C4">
-        <v>0.03904995334099447</v>
+        <v>0.0008026502452311964</v>
       </c>
       <c r="D4">
-        <v>-0.003086373267372428</v>
+        <v>0.02739790695370729</v>
       </c>
       <c r="E4">
-        <v>0.06903052907865181</v>
+        <v>0.0205874648579555</v>
       </c>
       <c r="F4">
-        <v>0.06787353111022698</v>
+        <v>0.06015373553051061</v>
       </c>
       <c r="G4">
-        <v>-0.05180153014853458</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.04715582049845169</v>
+      </c>
+      <c r="H4">
+        <v>-0.0261288474105651</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.011934475279945</v>
+        <v>0.03052188776226776</v>
       </c>
       <c r="C6">
-        <v>0.0001284100576719849</v>
+        <v>7.426357252241682e-05</v>
       </c>
       <c r="D6">
-        <v>0.01323005987866997</v>
+        <v>0.03476970825737282</v>
       </c>
       <c r="E6">
-        <v>0.0123440741802362</v>
+        <v>0.00535334378363051</v>
       </c>
       <c r="F6">
-        <v>0.01283355502588949</v>
+        <v>0.03729743986788747</v>
       </c>
       <c r="G6">
-        <v>0.01497647339284013</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.01399082381815696</v>
+      </c>
+      <c r="H6">
+        <v>-0.05204997450027607</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02733274617320424</v>
+        <v>0.02155204402189764</v>
       </c>
       <c r="C7">
-        <v>0.02069810580923501</v>
+        <v>1.515630624091559e-05</v>
       </c>
       <c r="D7">
-        <v>0.02899252961135591</v>
+        <v>0.01555085933008878</v>
       </c>
       <c r="E7">
-        <v>0.03997948487680014</v>
+        <v>0.03585556099838607</v>
       </c>
       <c r="F7">
-        <v>0.07181356094269609</v>
+        <v>0.02499189027118025</v>
       </c>
       <c r="G7">
-        <v>-0.04567746922182588</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.03702261248234424</v>
+      </c>
+      <c r="H7">
+        <v>-0.0133055257124625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01223124540039667</v>
+        <v>0.002034686414005492</v>
       </c>
       <c r="C8">
-        <v>0.01305725929651563</v>
+        <v>0.001085590747703802</v>
       </c>
       <c r="D8">
-        <v>-0.006565285165242862</v>
+        <v>0.008580179519693537</v>
       </c>
       <c r="E8">
-        <v>0.07404149829359268</v>
+        <v>0.01255032237907478</v>
       </c>
       <c r="F8">
-        <v>0.0915712267437664</v>
+        <v>0.02617359213794263</v>
       </c>
       <c r="G8">
-        <v>-0.05121889702829522</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.05349228288562443</v>
+      </c>
+      <c r="H8">
+        <v>-0.0062673600257266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.04312893249096189</v>
+        <v>0.03733898186625857</v>
       </c>
       <c r="C9">
-        <v>0.03249989191204593</v>
+        <v>0.003863183467035484</v>
       </c>
       <c r="D9">
-        <v>-0.01521707078599329</v>
+        <v>0.02343945325249509</v>
       </c>
       <c r="E9">
-        <v>0.06788044370911823</v>
+        <v>0.01862096913931975</v>
       </c>
       <c r="F9">
-        <v>0.07042901332810859</v>
+        <v>0.03829853188379057</v>
       </c>
       <c r="G9">
-        <v>-0.04033204931576487</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.05966838956590916</v>
+      </c>
+      <c r="H9">
+        <v>-0.02469427855220805</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.05595742858955673</v>
+        <v>0.08660083416306914</v>
       </c>
       <c r="C10">
-        <v>0.04395266374928417</v>
+        <v>0.03973863978057122</v>
       </c>
       <c r="D10">
-        <v>-0.01527992046605616</v>
+        <v>-0.1447982305599564</v>
       </c>
       <c r="E10">
-        <v>-0.1123029283198329</v>
+        <v>-0.01901774546917902</v>
       </c>
       <c r="F10">
-        <v>0.05341825351719962</v>
+        <v>-0.08102896354924974</v>
       </c>
       <c r="G10">
-        <v>0.008034139732009034</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02694058370451289</v>
+      </c>
+      <c r="H10">
+        <v>-0.004478969857281961</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03263421385561101</v>
+        <v>0.02234422846360643</v>
       </c>
       <c r="C11">
-        <v>0.01217012291534109</v>
+        <v>0.0108730047863605</v>
       </c>
       <c r="D11">
-        <v>0.01532180075265242</v>
+        <v>0.03182964702355812</v>
       </c>
       <c r="E11">
-        <v>0.03630152875855538</v>
+        <v>-0.003610731022314142</v>
       </c>
       <c r="F11">
-        <v>0.03812568335890378</v>
+        <v>0.0242356436485806</v>
       </c>
       <c r="G11">
-        <v>-0.01116529988377259</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.03472595846661632</v>
+      </c>
+      <c r="H11">
+        <v>-0.02678401801560695</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.0399651095410992</v>
+        <v>0.0312594594575458</v>
       </c>
       <c r="C12">
-        <v>0.01325636216160977</v>
+        <v>0.01021749807774548</v>
       </c>
       <c r="D12">
-        <v>0.002353234266637261</v>
+        <v>0.03066488788877307</v>
       </c>
       <c r="E12">
-        <v>0.04471202699927086</v>
+        <v>0.007183292761982703</v>
       </c>
       <c r="F12">
-        <v>0.01927463229085376</v>
+        <v>0.02753890448788149</v>
       </c>
       <c r="G12">
-        <v>-0.009090468332746352</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.01217217366777592</v>
+      </c>
+      <c r="H12">
+        <v>-0.01381911098998216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01874750653595959</v>
+        <v>0.02513122843345802</v>
       </c>
       <c r="C13">
-        <v>0.02445201526007012</v>
+        <v>-0.01118923502719963</v>
       </c>
       <c r="D13">
-        <v>0.03477711587759132</v>
+        <v>0.00255837602289501</v>
       </c>
       <c r="E13">
-        <v>0.02147120730585297</v>
+        <v>-0.01655659572408384</v>
       </c>
       <c r="F13">
-        <v>0.09397876483515287</v>
+        <v>0.02183748134353812</v>
       </c>
       <c r="G13">
-        <v>-0.03052452338956178</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.06598462760715083</v>
+      </c>
+      <c r="H13">
+        <v>-0.02376929576111608</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01120649093703211</v>
+        <v>0.01603538406564512</v>
       </c>
       <c r="C14">
-        <v>0.022494544302026</v>
+        <v>0.001843343496818502</v>
       </c>
       <c r="D14">
-        <v>0.002758737000316275</v>
+        <v>0.0006156186138522044</v>
       </c>
       <c r="E14">
-        <v>0.04017358531765877</v>
+        <v>0.008107040270645858</v>
       </c>
       <c r="F14">
-        <v>0.07007351733933044</v>
+        <v>0.02650886599151448</v>
       </c>
       <c r="G14">
-        <v>-0.05610425629864661</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.04425656455323364</v>
+      </c>
+      <c r="H14">
+        <v>0.02035706686174803</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02519060911832539</v>
+        <v>0.02334747767882138</v>
       </c>
       <c r="C16">
-        <v>0.01366262633640951</v>
+        <v>0.01140283810585684</v>
       </c>
       <c r="D16">
-        <v>0.01251776565922584</v>
+        <v>0.02690511432903893</v>
       </c>
       <c r="E16">
-        <v>0.03406464661144025</v>
+        <v>0.001179066954717696</v>
       </c>
       <c r="F16">
-        <v>0.04100815446966074</v>
+        <v>0.0252469102728043</v>
       </c>
       <c r="G16">
-        <v>-0.01511790760124103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.030066175804163</v>
+      </c>
+      <c r="H16">
+        <v>-0.02077093679149704</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.03788252285577425</v>
+        <v>0.03369975661366614</v>
       </c>
       <c r="C19">
-        <v>0.01446147558946262</v>
+        <v>0.004169206768338567</v>
       </c>
       <c r="D19">
-        <v>0.02148818343376713</v>
+        <v>0.009265304217799877</v>
       </c>
       <c r="E19">
-        <v>0.05295489856466989</v>
+        <v>-0.002029175458655264</v>
       </c>
       <c r="F19">
-        <v>0.1044973998447018</v>
+        <v>0.03295400274896414</v>
       </c>
       <c r="G19">
-        <v>-0.0406061498540811</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.07000730723180708</v>
+      </c>
+      <c r="H19">
+        <v>-0.03703778391422011</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.004560858512658948</v>
+        <v>0.007196830027477428</v>
       </c>
       <c r="C20">
-        <v>0.02238245623062831</v>
+        <v>-0.006726755667773999</v>
       </c>
       <c r="D20">
-        <v>0.006805715382958441</v>
+        <v>0.001714026044208263</v>
       </c>
       <c r="E20">
-        <v>0.03462301259082275</v>
+        <v>0.001439937459763597</v>
       </c>
       <c r="F20">
-        <v>0.06925840559830733</v>
+        <v>0.01778305688084587</v>
       </c>
       <c r="G20">
-        <v>-0.05624172454232088</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.05015512296223115</v>
+      </c>
+      <c r="H20">
+        <v>0.01010527310578156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.003568325881965089</v>
+        <v>0.02062113448080579</v>
       </c>
       <c r="C21">
-        <v>-0.00100381874926624</v>
+        <v>-0.00441270505952835</v>
       </c>
       <c r="D21">
-        <v>0.003782275432107426</v>
+        <v>0.0008004313741622382</v>
       </c>
       <c r="E21">
-        <v>0.03575651006512433</v>
+        <v>0.0128884371859683</v>
       </c>
       <c r="F21">
-        <v>0.07853218531637253</v>
+        <v>0.009185655122445234</v>
       </c>
       <c r="G21">
-        <v>-0.01002218570729911</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.0547965527560135</v>
+      </c>
+      <c r="H21">
+        <v>-0.00756633299598774</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02842020010543787</v>
+        <v>0.02227934383272409</v>
       </c>
       <c r="C24">
-        <v>0.01345688802660103</v>
+        <v>0.005894232783679914</v>
       </c>
       <c r="D24">
-        <v>0.009328867247632822</v>
+        <v>0.02776783128710381</v>
       </c>
       <c r="E24">
-        <v>0.02745241908619748</v>
+        <v>0.001185163457101979</v>
       </c>
       <c r="F24">
-        <v>0.03830856243025418</v>
+        <v>0.02113995567718728</v>
       </c>
       <c r="G24">
-        <v>-0.004608407910609554</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.02886364568361664</v>
+      </c>
+      <c r="H24">
+        <v>-0.02646965055508426</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.0316213007529707</v>
+        <v>0.03353192557076722</v>
       </c>
       <c r="C25">
-        <v>0.01176350586789243</v>
+        <v>0.005840508821447306</v>
       </c>
       <c r="D25">
-        <v>0.007644603309078487</v>
+        <v>0.02281230900432222</v>
       </c>
       <c r="E25">
-        <v>0.03594064380303288</v>
+        <v>0.001418276859150886</v>
       </c>
       <c r="F25">
-        <v>0.03489000132068994</v>
+        <v>0.0258185855501056</v>
       </c>
       <c r="G25">
-        <v>0.003512515719578958</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.03262363283019994</v>
+      </c>
+      <c r="H25">
+        <v>-0.02845207337465925</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.0188252157440488</v>
+        <v>0.01922612779994277</v>
       </c>
       <c r="C26">
-        <v>0.001339351287455216</v>
+        <v>-0.01595103015248032</v>
       </c>
       <c r="D26">
-        <v>0.03573772192998092</v>
+        <v>0.003363548296316359</v>
       </c>
       <c r="E26">
-        <v>0.04226570737110759</v>
+        <v>-0.006203240397392741</v>
       </c>
       <c r="F26">
-        <v>0.05647346403444163</v>
+        <v>0.006206426848710697</v>
       </c>
       <c r="G26">
-        <v>-0.02770926384629192</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.03746097897062891</v>
+      </c>
+      <c r="H26">
+        <v>0.003435743928308007</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.07504791821472936</v>
+        <v>0.03210165325048505</v>
       </c>
       <c r="C27">
-        <v>0.05022237750001995</v>
+        <v>0.01636133054867246</v>
       </c>
       <c r="D27">
-        <v>0.001101905893375618</v>
+        <v>0.008425436386517557</v>
       </c>
       <c r="E27">
-        <v>0.05947244141303727</v>
+        <v>0.003668617675789298</v>
       </c>
       <c r="F27">
-        <v>0.05943458681824179</v>
+        <v>0.02762588905535612</v>
       </c>
       <c r="G27">
-        <v>-0.05328500705378195</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.02798757713238966</v>
+      </c>
+      <c r="H27">
+        <v>0.002033660590887507</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.08151459712074062</v>
+        <v>0.1334767771548407</v>
       </c>
       <c r="C28">
-        <v>0.06192478939752367</v>
+        <v>0.04709533959346888</v>
       </c>
       <c r="D28">
-        <v>-0.03365607335985697</v>
+        <v>-0.2153418828871724</v>
       </c>
       <c r="E28">
-        <v>-0.1780282522695049</v>
+        <v>-0.02444885889567345</v>
       </c>
       <c r="F28">
-        <v>0.07277073284233891</v>
+        <v>-0.1093697437185636</v>
       </c>
       <c r="G28">
-        <v>-0.01949066706214826</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.01352832621557058</v>
+      </c>
+      <c r="H28">
+        <v>0.009191796577071934</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01879220445327548</v>
+        <v>0.02046208208128836</v>
       </c>
       <c r="C29">
-        <v>0.0255551836899276</v>
+        <v>0.00445004513629754</v>
       </c>
       <c r="D29">
-        <v>-0.005862835411447804</v>
+        <v>0.00222113407942366</v>
       </c>
       <c r="E29">
-        <v>0.05922081368459422</v>
+        <v>0.0103954073250483</v>
       </c>
       <c r="F29">
-        <v>0.04884317776033639</v>
+        <v>0.02964644525345608</v>
       </c>
       <c r="G29">
-        <v>-0.05850559898753884</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.0356572775380426</v>
+      </c>
+      <c r="H29">
+        <v>0.02169647644810929</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.0850335595053201</v>
+        <v>0.05551494170951463</v>
       </c>
       <c r="C30">
-        <v>0.05440046828730843</v>
+        <v>0.002882871198622794</v>
       </c>
       <c r="D30">
-        <v>0.03476594924873145</v>
+        <v>0.05385914350174924</v>
       </c>
       <c r="E30">
-        <v>0.09029053977880676</v>
+        <v>-0.03528396416593092</v>
       </c>
       <c r="F30">
-        <v>0.0555920545566081</v>
+        <v>0.07641476377840099</v>
       </c>
       <c r="G30">
-        <v>-0.01831894539926894</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.06345273828412468</v>
+      </c>
+      <c r="H30">
+        <v>-0.03600149534233559</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06014054956582027</v>
+        <v>0.05394611998344932</v>
       </c>
       <c r="C31">
-        <v>0.01753701776577131</v>
+        <v>0.02077194919072222</v>
       </c>
       <c r="D31">
-        <v>0.04895419374681053</v>
+        <v>0.02299269322708404</v>
       </c>
       <c r="E31">
-        <v>0.03841714655681021</v>
+        <v>-0.009937296363595164</v>
       </c>
       <c r="F31">
-        <v>0.03964907119316787</v>
+        <v>0.02242105175911409</v>
       </c>
       <c r="G31">
-        <v>-0.08222393146625764</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.02392022709198579</v>
+      </c>
+      <c r="H31">
+        <v>0.0170633414954115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01709399361361998</v>
+        <v>0.009184147803726993</v>
       </c>
       <c r="C32">
-        <v>0.02386351363712278</v>
+        <v>0.01551346906454446</v>
       </c>
       <c r="D32">
-        <v>-0.003355478041457618</v>
+        <v>-0.007135382634247179</v>
       </c>
       <c r="E32">
-        <v>0.0709779216861727</v>
+        <v>0.01826910809526418</v>
       </c>
       <c r="F32">
-        <v>0.06731834421072609</v>
+        <v>0.04273468389852412</v>
       </c>
       <c r="G32">
-        <v>-0.03234662310163029</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.05199921170081984</v>
+      </c>
+      <c r="H32">
+        <v>-0.04172356379289171</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.05304510208167125</v>
+        <v>0.03863412833454317</v>
       </c>
       <c r="C33">
-        <v>0.003907603605902784</v>
+        <v>0.004587760985940216</v>
       </c>
       <c r="D33">
-        <v>0.04525602560775095</v>
+        <v>0.03068529018929825</v>
       </c>
       <c r="E33">
-        <v>0.07364333530951514</v>
+        <v>-0.02294784317146885</v>
       </c>
       <c r="F33">
-        <v>0.0939883630068704</v>
+        <v>0.01573209391885658</v>
       </c>
       <c r="G33">
-        <v>-0.03145074291601638</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.0621364618318633</v>
+      </c>
+      <c r="H33">
+        <v>-0.01491148811909361</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03040567720444181</v>
+        <v>0.02650644515041716</v>
       </c>
       <c r="C34">
-        <v>0.01716915900027127</v>
+        <v>0.02017880188492078</v>
       </c>
       <c r="D34">
-        <v>0.01175244903236538</v>
+        <v>0.02664830711229848</v>
       </c>
       <c r="E34">
-        <v>0.04182869959833353</v>
+        <v>0.00561756831654148</v>
       </c>
       <c r="F34">
-        <v>0.04187972033115089</v>
+        <v>0.02643919298392039</v>
       </c>
       <c r="G34">
-        <v>-0.004978778500163279</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.02748904258696997</v>
+      </c>
+      <c r="H34">
+        <v>-0.0241656343846628</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01340397456345213</v>
+        <v>0.01881838356660461</v>
       </c>
       <c r="C36">
-        <v>0.01421295918271741</v>
+        <v>-0.0021311441551914</v>
       </c>
       <c r="D36">
-        <v>0.00143758505466497</v>
+        <v>-0.00361331046954472</v>
       </c>
       <c r="E36">
-        <v>0.02926656675943196</v>
+        <v>0.0025282269504774</v>
       </c>
       <c r="F36">
-        <v>0.02669868619262735</v>
+        <v>0.009317120647917376</v>
       </c>
       <c r="G36">
-        <v>-0.03323207243116959</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.01959563983081593</v>
+      </c>
+      <c r="H36">
+        <v>0.005558535793983108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.00737663765317757</v>
+        <v>0.01641436709176451</v>
       </c>
       <c r="C38">
-        <v>-0.002173347100547187</v>
+        <v>0.01729729369899071</v>
       </c>
       <c r="D38">
-        <v>-0.01073151842683441</v>
+        <v>-0.003561844281971471</v>
       </c>
       <c r="E38">
-        <v>-0.009751913960470312</v>
+        <v>0.005462563339420409</v>
       </c>
       <c r="F38">
-        <v>0.004523152646611094</v>
+        <v>0.009085732636281658</v>
       </c>
       <c r="G38">
-        <v>0.005380834314087157</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.02784507965355838</v>
+      </c>
+      <c r="H38">
+        <v>-0.02038272139781781</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03885343749056937</v>
+        <v>0.02419080468042708</v>
       </c>
       <c r="C39">
-        <v>0.02318763966313666</v>
+        <v>0.004216611137104848</v>
       </c>
       <c r="D39">
-        <v>0.0296755430945501</v>
+        <v>0.06527487605112836</v>
       </c>
       <c r="E39">
-        <v>0.04315934216936591</v>
+        <v>-0.00164723615327549</v>
       </c>
       <c r="F39">
-        <v>0.04613816100797025</v>
+        <v>0.04630368110691395</v>
       </c>
       <c r="G39">
-        <v>-0.009717363581351588</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.05468847830596261</v>
+      </c>
+      <c r="H39">
+        <v>-0.04919053785291572</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.02987108233468676</v>
+        <v>0.02792312090714375</v>
       </c>
       <c r="C40">
-        <v>0.03976125415514901</v>
+        <v>0.003207949702347805</v>
       </c>
       <c r="D40">
-        <v>0.05481190311109586</v>
+        <v>0.02065708715580655</v>
       </c>
       <c r="E40">
-        <v>0.03820283782913479</v>
+        <v>-0.01967508725229912</v>
       </c>
       <c r="F40">
-        <v>0.0909025236252112</v>
+        <v>0.03714582514497123</v>
       </c>
       <c r="G40">
-        <v>-0.04074136915779523</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.0421076997697815</v>
+      </c>
+      <c r="H40">
+        <v>-0.04277506284724481</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.002041844479768685</v>
+        <v>0.007525976844806261</v>
       </c>
       <c r="C41">
-        <v>-0.008115701525912934</v>
+        <v>-0.000706796220695914</v>
       </c>
       <c r="D41">
-        <v>0.006315731747170422</v>
+        <v>-0.008547587723390459</v>
       </c>
       <c r="E41">
-        <v>0.02282864724979744</v>
+        <v>-0.001429545447817727</v>
       </c>
       <c r="F41">
-        <v>0.01554361968877235</v>
+        <v>-0.004448791758608034</v>
       </c>
       <c r="G41">
-        <v>-0.06606828741268672</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.008491238016083872</v>
+      </c>
+      <c r="H41">
+        <v>0.01856890887920659</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3560982378211396</v>
+        <v>0.2100127789285721</v>
       </c>
       <c r="C42">
-        <v>-0.8909296169445075</v>
+        <v>-0.08792070975368489</v>
       </c>
       <c r="D42">
-        <v>0.1950986030489842</v>
+        <v>0.578158314623791</v>
       </c>
       <c r="E42">
-        <v>-0.09940492494408988</v>
+        <v>-0.1144566379740489</v>
       </c>
       <c r="F42">
-        <v>-0.02451519203680605</v>
+        <v>-0.7604705549600393</v>
       </c>
       <c r="G42">
-        <v>-0.02269200645624736</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.07162089549184313</v>
+      </c>
+      <c r="H42">
+        <v>-0.01383345225414204</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.0076293011835218</v>
+        <v>0.005045641277516903</v>
       </c>
       <c r="C43">
-        <v>-0.003978373465877687</v>
+        <v>-0.003248465746990737</v>
       </c>
       <c r="D43">
-        <v>0.009450146770175994</v>
+        <v>-0.0111164140407326</v>
       </c>
       <c r="E43">
-        <v>0.02532958431574717</v>
+        <v>-0.005522599691858397</v>
       </c>
       <c r="F43">
-        <v>0.03432645410719867</v>
+        <v>-0.009670049173195951</v>
       </c>
       <c r="G43">
-        <v>-0.05701523882055234</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.01721239248264439</v>
+      </c>
+      <c r="H43">
+        <v>0.01101121586946739</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01955685829149128</v>
+        <v>0.01214790837133761</v>
       </c>
       <c r="C44">
-        <v>0.003798922458548227</v>
+        <v>0.0004747859723318802</v>
       </c>
       <c r="D44">
-        <v>0.02513904668439697</v>
+        <v>0.02320127401861052</v>
       </c>
       <c r="E44">
-        <v>0.070468656988263</v>
+        <v>0.00173304414436367</v>
       </c>
       <c r="F44">
-        <v>0.1936841192603765</v>
+        <v>0.00644506528278606</v>
       </c>
       <c r="G44">
-        <v>-0.1623488480289005</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.08810495595173282</v>
+      </c>
+      <c r="H44">
+        <v>-0.0131445737967062</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01792282426811681</v>
+        <v>0.0210166392264042</v>
       </c>
       <c r="C46">
-        <v>0.02449710279311958</v>
+        <v>0.000643704505995276</v>
       </c>
       <c r="D46">
-        <v>0.0194752579483702</v>
+        <v>0.004794800797578821</v>
       </c>
       <c r="E46">
-        <v>0.06870017523092188</v>
+        <v>-0.001914158052061305</v>
       </c>
       <c r="F46">
-        <v>0.06893250914145431</v>
+        <v>0.03434682273293158</v>
       </c>
       <c r="G46">
-        <v>-0.04221337373530724</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.05688002178046708</v>
+      </c>
+      <c r="H46">
+        <v>0.01548153419306163</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09529152128628396</v>
+        <v>0.07410007650320463</v>
       </c>
       <c r="C47">
-        <v>0.03447274276562962</v>
+        <v>0.03895485321517893</v>
       </c>
       <c r="D47">
-        <v>0.02543714033322509</v>
+        <v>0.02788749327624111</v>
       </c>
       <c r="E47">
-        <v>0.04313544277847152</v>
+        <v>-0.005803005199172887</v>
       </c>
       <c r="F47">
-        <v>0.01059264927686583</v>
+        <v>0.03316623749698539</v>
       </c>
       <c r="G47">
-        <v>-0.0937246138227656</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.008958974681552578</v>
+      </c>
+      <c r="H47">
+        <v>0.03291343131499758</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01123999911765225</v>
+        <v>0.01831440034983731</v>
       </c>
       <c r="C48">
-        <v>0.006970491691832184</v>
+        <v>0.007675934647752118</v>
       </c>
       <c r="D48">
-        <v>0.01369879827048464</v>
+        <v>0.00355453200357352</v>
       </c>
       <c r="E48">
-        <v>0.03959927228049306</v>
+        <v>-0.001842722154985498</v>
       </c>
       <c r="F48">
-        <v>0.04078818923700359</v>
+        <v>0.0119408598760909</v>
       </c>
       <c r="G48">
-        <v>-0.008472966608024747</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.02698798301679082</v>
+      </c>
+      <c r="H48">
+        <v>0.001294507034051889</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08779896682321407</v>
+        <v>0.06675755997046752</v>
       </c>
       <c r="C50">
-        <v>0.01605788042136818</v>
+        <v>0.03218961097680119</v>
       </c>
       <c r="D50">
-        <v>0.03742937681363521</v>
+        <v>0.04012079061421886</v>
       </c>
       <c r="E50">
-        <v>0.06016440495932859</v>
+        <v>0.009271778683312141</v>
       </c>
       <c r="F50">
-        <v>0.02574908576805724</v>
+        <v>0.02909089406924497</v>
       </c>
       <c r="G50">
-        <v>-0.02351214112625184</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.02323047958747606</v>
+      </c>
+      <c r="H50">
+        <v>0.02910491955718283</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.0256796045920624</v>
+        <v>0.02080310679116939</v>
       </c>
       <c r="C51">
-        <v>0.02009423777708766</v>
+        <v>0.002446450139416459</v>
       </c>
       <c r="D51">
-        <v>0.03348010395051829</v>
+        <v>-0.01027851398015783</v>
       </c>
       <c r="E51">
-        <v>0.03810421593861459</v>
+        <v>-0.007629566365283061</v>
       </c>
       <c r="F51">
-        <v>0.1297040177651379</v>
+        <v>-0.0001982360411636192</v>
       </c>
       <c r="G51">
-        <v>-0.03669847389944095</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.07368027045675402</v>
+      </c>
+      <c r="H51">
+        <v>-0.02279246651689322</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1039869602574723</v>
+        <v>0.09484930366085628</v>
       </c>
       <c r="C53">
-        <v>0.04878792647939623</v>
+        <v>0.04901415348638539</v>
       </c>
       <c r="D53">
-        <v>0.04132211189736919</v>
+        <v>0.0541707096980116</v>
       </c>
       <c r="E53">
-        <v>0.04810245289586391</v>
+        <v>-0.003889352823486774</v>
       </c>
       <c r="F53">
-        <v>-0.05442455265715141</v>
+        <v>0.06653134364180251</v>
       </c>
       <c r="G53">
-        <v>-0.04638353519959749</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.05629594697262997</v>
+      </c>
+      <c r="H53">
+        <v>0.03641011505862659</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.01853036761973699</v>
+        <v>0.02226061829636264</v>
       </c>
       <c r="C54">
-        <v>0.03857200276859845</v>
+        <v>0.0152850320891378</v>
       </c>
       <c r="D54">
-        <v>0.000533044516861656</v>
+        <v>-0.02372403433095604</v>
       </c>
       <c r="E54">
-        <v>0.03412405027331979</v>
+        <v>0.003647652695624346</v>
       </c>
       <c r="F54">
-        <v>0.07439208837107472</v>
+        <v>0.01299254808180822</v>
       </c>
       <c r="G54">
-        <v>-0.07448952806442088</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.03803042561654947</v>
+      </c>
+      <c r="H54">
+        <v>0.01784259689204817</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1010261057256771</v>
+        <v>0.08203523387100582</v>
       </c>
       <c r="C55">
-        <v>0.03137198539017606</v>
+        <v>0.04321608672740888</v>
       </c>
       <c r="D55">
-        <v>0.0008531274810001088</v>
+        <v>0.05431882158618626</v>
       </c>
       <c r="E55">
-        <v>0.05487900354583335</v>
+        <v>0.008497452341760565</v>
       </c>
       <c r="F55">
-        <v>-0.04380934072744858</v>
+        <v>0.05534315141640556</v>
       </c>
       <c r="G55">
-        <v>-0.07461685609243818</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.03597387959940692</v>
+      </c>
+      <c r="H55">
+        <v>0.04733747710527921</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1453613647830104</v>
+        <v>0.1268519864065339</v>
       </c>
       <c r="C56">
-        <v>0.07489145004254896</v>
+        <v>0.07190859732696477</v>
       </c>
       <c r="D56">
-        <v>0.02691276124139899</v>
+        <v>0.07308091055145163</v>
       </c>
       <c r="E56">
-        <v>0.06419349782102181</v>
+        <v>0.000223575823185317</v>
       </c>
       <c r="F56">
-        <v>-0.1589502936036752</v>
+        <v>0.09330150336950085</v>
       </c>
       <c r="G56">
-        <v>-0.02873061434540629</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.1026556621460542</v>
+      </c>
+      <c r="H56">
+        <v>0.02788244758243286</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04488262173160931</v>
+        <v>0.04614605503146965</v>
       </c>
       <c r="C57">
-        <v>0.01102075253942653</v>
+        <v>-0.00315100201115617</v>
       </c>
       <c r="D57">
-        <v>0.03586565191693786</v>
+        <v>0.01832491350676267</v>
       </c>
       <c r="E57">
-        <v>0.007865445133380345</v>
+        <v>-0.01203767909380598</v>
       </c>
       <c r="F57">
-        <v>0.07870360918406999</v>
+        <v>0.02452510992704164</v>
       </c>
       <c r="G57">
-        <v>-0.01846473569209164</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.06245522322556556</v>
+      </c>
+      <c r="H57">
+        <v>-0.009731404946515308</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1946551251331642</v>
+        <v>0.143577523222936</v>
       </c>
       <c r="C58">
-        <v>0.05244006250743259</v>
+        <v>0.05795388469609907</v>
       </c>
       <c r="D58">
-        <v>0.1104253045260551</v>
+        <v>0.1220838661615245</v>
       </c>
       <c r="E58">
-        <v>0.2556252106573059</v>
+        <v>-0.1140349227486361</v>
       </c>
       <c r="F58">
-        <v>0.214652331383235</v>
+        <v>0.05946928802362992</v>
       </c>
       <c r="G58">
-        <v>0.2204191379545526</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.6811733049355542</v>
+      </c>
+      <c r="H58">
+        <v>0.5407211876175079</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.07935846144951622</v>
+        <v>0.1353291100968366</v>
       </c>
       <c r="C59">
-        <v>0.0858025291312714</v>
+        <v>0.05433837946814939</v>
       </c>
       <c r="D59">
-        <v>-0.02436637986306455</v>
+        <v>-0.2141534251523787</v>
       </c>
       <c r="E59">
-        <v>-0.1525223718223395</v>
+        <v>-0.04181190085754535</v>
       </c>
       <c r="F59">
-        <v>0.06780382648162696</v>
+        <v>-0.09063577447519079</v>
       </c>
       <c r="G59">
-        <v>0.005574041863723361</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.02106224078459592</v>
+      </c>
+      <c r="H59">
+        <v>-0.02107386545521082</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1678449368627925</v>
+        <v>0.1658904844640298</v>
       </c>
       <c r="C60">
-        <v>0.05899136779154585</v>
+        <v>0.05608335514416913</v>
       </c>
       <c r="D60">
-        <v>0.07348670667474855</v>
+        <v>0.0102583088114006</v>
       </c>
       <c r="E60">
-        <v>0.02875308133177971</v>
+        <v>-0.05631041890814898</v>
       </c>
       <c r="F60">
-        <v>0.07749913672870244</v>
+        <v>0.05655070095605631</v>
       </c>
       <c r="G60">
-        <v>0.3289282186942163</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.1301600320620218</v>
+      </c>
+      <c r="H60">
+        <v>-0.3749338107025019</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02153598659826273</v>
+        <v>0.02334578702341835</v>
       </c>
       <c r="C61">
-        <v>0.01231777037001694</v>
+        <v>0.009544189886666323</v>
       </c>
       <c r="D61">
-        <v>0.005607724876829493</v>
+        <v>0.03450235250945465</v>
       </c>
       <c r="E61">
-        <v>0.02050458645909015</v>
+        <v>0.002675335406271764</v>
       </c>
       <c r="F61">
-        <v>0.03458745365831327</v>
+        <v>0.03264505722521656</v>
       </c>
       <c r="G61">
-        <v>-0.004960215256378308</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.03184316283636771</v>
+      </c>
+      <c r="H61">
+        <v>-0.03705131167331866</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01896634914773553</v>
+        <v>0.01487229126981785</v>
       </c>
       <c r="C63">
-        <v>0.01740999500102661</v>
+        <v>0.0008978405991825463</v>
       </c>
       <c r="D63">
-        <v>0.01282868404967307</v>
+        <v>0.004885695116968741</v>
       </c>
       <c r="E63">
-        <v>0.04226344023485255</v>
+        <v>0.001863150996461551</v>
       </c>
       <c r="F63">
-        <v>0.01147316951948645</v>
+        <v>0.02251012110829901</v>
       </c>
       <c r="G63">
-        <v>-0.04578120163870078</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.01529039060719382</v>
+      </c>
+      <c r="H63">
+        <v>0.01421519877346346</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03424441737378211</v>
+        <v>0.03925512476659201</v>
       </c>
       <c r="C64">
-        <v>0.02457906879278555</v>
+        <v>0.01456113748382692</v>
       </c>
       <c r="D64">
-        <v>-0.02043542044566387</v>
+        <v>0.02924300714884254</v>
       </c>
       <c r="E64">
-        <v>0.04370262520680617</v>
+        <v>0.01147597431793238</v>
       </c>
       <c r="F64">
-        <v>0.02921551264185806</v>
+        <v>0.02726702193794884</v>
       </c>
       <c r="G64">
-        <v>-0.06256856144902506</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.01958955064120352</v>
+      </c>
+      <c r="H64">
+        <v>-0.02577977153401028</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.0123984539334013</v>
+        <v>0.03620565020181883</v>
       </c>
       <c r="C65">
-        <v>-0.001053169212566589</v>
+        <v>0.0005348693736208349</v>
       </c>
       <c r="D65">
-        <v>0.01182172268805762</v>
+        <v>0.03945590883614639</v>
       </c>
       <c r="E65">
-        <v>0.00925942081278399</v>
+        <v>0.005404134409422653</v>
       </c>
       <c r="F65">
-        <v>0.008418526693184818</v>
+        <v>0.0380470583749344</v>
       </c>
       <c r="G65">
-        <v>0.01621903937897526</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.002712912633704865</v>
+      </c>
+      <c r="H65">
+        <v>-0.06019795864997725</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03748376889439064</v>
+        <v>0.03203277658272847</v>
       </c>
       <c r="C66">
-        <v>0.02720568570971972</v>
+        <v>0.01063496896237037</v>
       </c>
       <c r="D66">
-        <v>0.02222732679509529</v>
+        <v>0.072297666328635</v>
       </c>
       <c r="E66">
-        <v>0.0430289856597695</v>
+        <v>-0.007207862887588724</v>
       </c>
       <c r="F66">
-        <v>0.04173960919644582</v>
+        <v>0.0653793442066854</v>
       </c>
       <c r="G66">
-        <v>0.00604565355023006</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.04647742565716474</v>
+      </c>
+      <c r="H66">
+        <v>-0.05898363374228014</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.0268279741194226</v>
+        <v>0.0361493219982779</v>
       </c>
       <c r="C67">
-        <v>0.004351773252098273</v>
+        <v>0.02284592191677786</v>
       </c>
       <c r="D67">
-        <v>-0.01148206219657306</v>
+        <v>-0.009777065300920625</v>
       </c>
       <c r="E67">
-        <v>-0.02923942247295221</v>
+        <v>0.001971014926129214</v>
       </c>
       <c r="F67">
-        <v>0.01388933909531676</v>
+        <v>0.01119261818685297</v>
       </c>
       <c r="G67">
-        <v>0.006749763786874013</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.01668520658233026</v>
+      </c>
+      <c r="H67">
+        <v>-0.0319774302005528</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.08728657544963749</v>
+        <v>0.1379828070595162</v>
       </c>
       <c r="C68">
-        <v>0.06448319371614997</v>
+        <v>0.03265260778296845</v>
       </c>
       <c r="D68">
-        <v>-0.0377700523701944</v>
+        <v>-0.1983812325238166</v>
       </c>
       <c r="E68">
-        <v>-0.1772283977144221</v>
+        <v>-0.03670327793094071</v>
       </c>
       <c r="F68">
-        <v>0.038709254048369</v>
+        <v>-0.1100194525261494</v>
       </c>
       <c r="G68">
-        <v>0.04837357183557772</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.01994308720356802</v>
+      </c>
+      <c r="H68">
+        <v>0.03939475230966395</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.07379378239926318</v>
+        <v>0.057071258117628</v>
       </c>
       <c r="C69">
-        <v>0.03331821522163555</v>
+        <v>0.0347037639030963</v>
       </c>
       <c r="D69">
-        <v>0.02668184887078052</v>
+        <v>0.0261321162546602</v>
       </c>
       <c r="E69">
-        <v>0.009275297528709281</v>
+        <v>-0.005182781128214214</v>
       </c>
       <c r="F69">
-        <v>0.02440553483092461</v>
+        <v>0.03118369334219972</v>
       </c>
       <c r="G69">
-        <v>-0.07360603348144759</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.002870451864154681</v>
+      </c>
+      <c r="H69">
+        <v>0.0129086281500731</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1079512156140274</v>
+        <v>0.132693398747133</v>
       </c>
       <c r="C71">
-        <v>0.06916493950716568</v>
+        <v>0.04084727900329902</v>
       </c>
       <c r="D71">
-        <v>-0.01558032487402745</v>
+        <v>-0.1853037257025978</v>
       </c>
       <c r="E71">
-        <v>-0.2179738545016995</v>
+        <v>-0.03702980834523527</v>
       </c>
       <c r="F71">
-        <v>0.05975664997798533</v>
+        <v>-0.1151561662753929</v>
       </c>
       <c r="G71">
-        <v>0.005306111625859538</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.01964135837224642</v>
+      </c>
+      <c r="H71">
+        <v>0.02354868522564499</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1117633067041526</v>
+        <v>0.0872775624236839</v>
       </c>
       <c r="C72">
-        <v>0.09667716871109071</v>
+        <v>0.05334168810684088</v>
       </c>
       <c r="D72">
-        <v>0.01822187853828439</v>
+        <v>0.05605596455178568</v>
       </c>
       <c r="E72">
-        <v>0.06901779339884082</v>
+        <v>-0.009884691973540645</v>
       </c>
       <c r="F72">
-        <v>0.0777943193927243</v>
+        <v>0.1096854284862573</v>
       </c>
       <c r="G72">
-        <v>0.1704916386452476</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.09680535325639847</v>
+      </c>
+      <c r="H72">
+        <v>-0.1487389086334207</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2522547874793951</v>
+        <v>0.2375759499862608</v>
       </c>
       <c r="C73">
-        <v>0.08688501662641057</v>
+        <v>0.07635645706475962</v>
       </c>
       <c r="D73">
-        <v>0.06832026069247102</v>
+        <v>0.04267889623348369</v>
       </c>
       <c r="E73">
-        <v>-0.01354084691623864</v>
+        <v>-0.08575675251810633</v>
       </c>
       <c r="F73">
-        <v>0.155219859044892</v>
+        <v>0.07336386873388313</v>
       </c>
       <c r="G73">
-        <v>0.5240561924615543</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.1869673818773005</v>
+      </c>
+      <c r="H73">
+        <v>-0.5140550240544481</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1243403619950388</v>
+        <v>0.1139182044821476</v>
       </c>
       <c r="C74">
-        <v>0.04125791302233058</v>
+        <v>0.06397733405477486</v>
       </c>
       <c r="D74">
-        <v>0.03532169879640607</v>
+        <v>0.07415055841555644</v>
       </c>
       <c r="E74">
-        <v>0.0261555604629256</v>
+        <v>-0.008061653198963721</v>
       </c>
       <c r="F74">
-        <v>-0.1088294474633381</v>
+        <v>0.07710295079564386</v>
       </c>
       <c r="G74">
-        <v>-0.01025918723540753</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.07757845055199257</v>
+      </c>
+      <c r="H74">
+        <v>0.008969859179119266</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2180346814881591</v>
+        <v>0.2241939360596638</v>
       </c>
       <c r="C75">
-        <v>0.1165690336405567</v>
+        <v>0.1280775519346794</v>
       </c>
       <c r="D75">
-        <v>0.06929486698139053</v>
+        <v>0.1124749622228826</v>
       </c>
       <c r="E75">
-        <v>0.0894453444008968</v>
+        <v>-0.02787173261175492</v>
       </c>
       <c r="F75">
-        <v>-0.1747814842468732</v>
+        <v>0.1548251813084045</v>
       </c>
       <c r="G75">
-        <v>-0.1089953757498802</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.1604290831038357</v>
+      </c>
+      <c r="H75">
+        <v>0.09057880698299406</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2629297038818112</v>
+        <v>0.2064789529375747</v>
       </c>
       <c r="C76">
-        <v>0.1177663506658262</v>
+        <v>0.1219886360084884</v>
       </c>
       <c r="D76">
-        <v>0.00918177464217553</v>
+        <v>0.1001124867999123</v>
       </c>
       <c r="E76">
-        <v>0.05656984773853109</v>
+        <v>0.01314484051184774</v>
       </c>
       <c r="F76">
-        <v>-0.1938725718070518</v>
+        <v>0.1475299593243971</v>
       </c>
       <c r="G76">
-        <v>-0.09443375320174492</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.1724443446565528</v>
+      </c>
+      <c r="H76">
+        <v>0.09100228306455257</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1408061794999885</v>
+        <v>0.0753839960621054</v>
       </c>
       <c r="C77">
-        <v>-0.01742850360176705</v>
+        <v>0.01770804429586684</v>
       </c>
       <c r="D77">
-        <v>0.06913504701124147</v>
+        <v>0.07422875047063003</v>
       </c>
       <c r="E77">
-        <v>0.1168673532383013</v>
+        <v>-0.01433795394009111</v>
       </c>
       <c r="F77">
-        <v>0.2437386366382428</v>
+        <v>0.006656522984230667</v>
       </c>
       <c r="G77">
-        <v>-0.1248299069201613</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.1310352588953242</v>
+      </c>
+      <c r="H77">
+        <v>0.06840443138800857</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.051352584415179</v>
+        <v>0.03458146789093414</v>
       </c>
       <c r="C78">
-        <v>0.01462688371532002</v>
+        <v>0.01322535522498387</v>
       </c>
       <c r="D78">
-        <v>0.03275099329283931</v>
+        <v>0.05863397727571436</v>
       </c>
       <c r="E78">
-        <v>0.1113881507723438</v>
+        <v>0.004028511904630935</v>
       </c>
       <c r="F78">
-        <v>0.03480756104956558</v>
+        <v>0.05407656033092652</v>
       </c>
       <c r="G78">
-        <v>-0.04979591343587959</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.05141049440634908</v>
+      </c>
+      <c r="H78">
+        <v>-0.02801994827329608</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.220536417879077</v>
+        <v>0.1767337365105517</v>
       </c>
       <c r="C80">
-        <v>-0.1494161333471447</v>
+        <v>0.0739446816504413</v>
       </c>
       <c r="D80">
-        <v>-0.925521393262383</v>
+        <v>0.006513590637702023</v>
       </c>
       <c r="E80">
-        <v>0.2229169206991588</v>
+        <v>0.9609018380548652</v>
       </c>
       <c r="F80">
-        <v>0.03803592980031195</v>
+        <v>-0.1164786416817954</v>
       </c>
       <c r="G80">
-        <v>0.03958618283530081</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.09745945411615144</v>
+      </c>
+      <c r="H80">
+        <v>-0.008997194619059191</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1561474841121808</v>
+        <v>0.1515267621175601</v>
       </c>
       <c r="C81">
-        <v>0.09787663015576925</v>
+        <v>0.08617621972769302</v>
       </c>
       <c r="D81">
-        <v>0.02090428598478604</v>
+        <v>0.06471909044555077</v>
       </c>
       <c r="E81">
-        <v>0.05289387236633886</v>
+        <v>-0.004532485596287534</v>
       </c>
       <c r="F81">
-        <v>-0.1670148438364003</v>
+        <v>0.1052092985307414</v>
       </c>
       <c r="G81">
-        <v>-0.03477851887975583</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.103597941193392</v>
+      </c>
+      <c r="H81">
+        <v>0.06703341876292092</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.04963369689778717</v>
+        <v>0.03736381162584467</v>
       </c>
       <c r="C83">
-        <v>-0.007049219157218257</v>
+        <v>0.01130357200020865</v>
       </c>
       <c r="D83">
-        <v>0.03893801589360053</v>
+        <v>0.01955086576513406</v>
       </c>
       <c r="E83">
-        <v>0.04151601028413921</v>
+        <v>-0.01287101437234207</v>
       </c>
       <c r="F83">
-        <v>0.07091484452489456</v>
+        <v>0.01434708709086894</v>
       </c>
       <c r="G83">
-        <v>-0.03423351529034722</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.05858384676877033</v>
+      </c>
+      <c r="H83">
+        <v>-0.01397011606226447</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2283854518576184</v>
+        <v>0.2105972963812493</v>
       </c>
       <c r="C85">
-        <v>0.1015403024967729</v>
+        <v>0.1077479966299903</v>
       </c>
       <c r="D85">
-        <v>0.04116911531519757</v>
+        <v>0.1160606327314163</v>
       </c>
       <c r="E85">
-        <v>0.05526212593175814</v>
+        <v>-0.01693252388916336</v>
       </c>
       <c r="F85">
-        <v>-0.1844529285351864</v>
+        <v>0.1369911151354753</v>
       </c>
       <c r="G85">
-        <v>-0.111482198523237</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.1689586037417015</v>
+      </c>
+      <c r="H85">
+        <v>0.06189725624419105</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.00297452124783257</v>
+        <v>0.01412545543785807</v>
       </c>
       <c r="C86">
-        <v>-0.007509055897191671</v>
+        <v>-0.0005717794524126736</v>
       </c>
       <c r="D86">
-        <v>0.002327425554136286</v>
+        <v>0.004549147070952697</v>
       </c>
       <c r="E86">
-        <v>0.05140963211276646</v>
+        <v>-0.009326264134163771</v>
       </c>
       <c r="F86">
-        <v>0.08023537392971075</v>
+        <v>-0.00118515344702192</v>
       </c>
       <c r="G86">
-        <v>-0.01960995722130132</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.08711989908544306</v>
+      </c>
+      <c r="H86">
+        <v>-0.03692037628810215</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03088418046346567</v>
+        <v>0.02771721233917011</v>
       </c>
       <c r="C87">
-        <v>0.008319646184126592</v>
+        <v>0.005762062211489219</v>
       </c>
       <c r="D87">
-        <v>0.0145623921452939</v>
+        <v>0.02590900251086236</v>
       </c>
       <c r="E87">
-        <v>0.03330043085508608</v>
+        <v>-0.001226381496533131</v>
       </c>
       <c r="F87">
-        <v>0.08136645794233928</v>
+        <v>0.02695791246107341</v>
       </c>
       <c r="G87">
-        <v>0.03071006682014591</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.09351946512380646</v>
+      </c>
+      <c r="H87">
+        <v>-0.02706673028209812</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.009815143145221757</v>
+        <v>0.03870803711028391</v>
       </c>
       <c r="C88">
-        <v>0.01752046051981086</v>
+        <v>-0.006044943801395853</v>
       </c>
       <c r="D88">
-        <v>-0.0244813715463504</v>
+        <v>-0.006158257492495304</v>
       </c>
       <c r="E88">
-        <v>-0.003388751986903039</v>
+        <v>0.007193347186261055</v>
       </c>
       <c r="F88">
-        <v>0.03819844645482592</v>
+        <v>0.01287415091328393</v>
       </c>
       <c r="G88">
-        <v>-0.07830860864197901</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.001381826726817676</v>
+      </c>
+      <c r="H88">
+        <v>-0.006855712051885214</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1298855656484843</v>
+        <v>0.2146041002848108</v>
       </c>
       <c r="C89">
-        <v>0.09013028859890872</v>
+        <v>0.062223993819731</v>
       </c>
       <c r="D89">
-        <v>-0.02166307734381042</v>
+        <v>-0.3215109685628914</v>
       </c>
       <c r="E89">
-        <v>-0.3004618666779992</v>
+        <v>-0.08002928254551676</v>
       </c>
       <c r="F89">
-        <v>0.1181043749898331</v>
+        <v>-0.1663683248260123</v>
       </c>
       <c r="G89">
-        <v>-0.05505628965769633</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.002522715066152203</v>
+      </c>
+      <c r="H89">
+        <v>0.03080149067737436</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1159978159548899</v>
+        <v>0.1697724959733597</v>
       </c>
       <c r="C90">
-        <v>0.08950580800914566</v>
+        <v>0.04998156182704214</v>
       </c>
       <c r="D90">
-        <v>-0.06875269189047009</v>
+        <v>-0.2822106874612336</v>
       </c>
       <c r="E90">
-        <v>-0.2905588065110002</v>
+        <v>-0.05243556603357123</v>
       </c>
       <c r="F90">
-        <v>0.07969905558428879</v>
+        <v>-0.1595548414279771</v>
       </c>
       <c r="G90">
-        <v>0.006205522537008114</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.03104512455899965</v>
+      </c>
+      <c r="H90">
+        <v>0.04586048261473859</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2915534300862828</v>
+        <v>0.2281037753568664</v>
       </c>
       <c r="C91">
-        <v>0.09511008528933811</v>
+        <v>0.128579769902122</v>
       </c>
       <c r="D91">
-        <v>0.06182209026401345</v>
+        <v>0.118220107634591</v>
       </c>
       <c r="E91">
-        <v>0.04769351471529459</v>
+        <v>-0.01972839387730673</v>
       </c>
       <c r="F91">
-        <v>-0.2623348833478505</v>
+        <v>0.1441134058146594</v>
       </c>
       <c r="G91">
-        <v>-0.0873960517075346</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.2107360232138241</v>
+      </c>
+      <c r="H91">
+        <v>0.1241705513392012</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1852507345467291</v>
+        <v>0.2247173022937962</v>
       </c>
       <c r="C92">
-        <v>0.06958606492095808</v>
+        <v>0.121092252270894</v>
       </c>
       <c r="D92">
-        <v>-0.1009224289086727</v>
+        <v>-0.2284376168162198</v>
       </c>
       <c r="E92">
-        <v>-0.4390048746086516</v>
+        <v>-0.03529224197878834</v>
       </c>
       <c r="F92">
-        <v>0.18463840750561</v>
+        <v>-0.1308553488896164</v>
       </c>
       <c r="G92">
-        <v>-0.2845261324216209</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.04072099961168753</v>
+      </c>
+      <c r="H92">
+        <v>0.1425746391462429</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.1306095213917685</v>
+        <v>0.1952062681699016</v>
       </c>
       <c r="C93">
-        <v>0.07185479913486163</v>
+        <v>0.06442834455545447</v>
       </c>
       <c r="D93">
-        <v>-0.07999556059908902</v>
+        <v>-0.298221389087203</v>
       </c>
       <c r="E93">
-        <v>-0.3983505219642473</v>
+        <v>-0.06888623343263332</v>
       </c>
       <c r="F93">
-        <v>0.03277493471144489</v>
+        <v>-0.1961301618068926</v>
       </c>
       <c r="G93">
-        <v>0.03157377833710585</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.04052437237967033</v>
+      </c>
+      <c r="H93">
+        <v>-0.01468465093497507</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2640876977966628</v>
+        <v>0.2512987581129735</v>
       </c>
       <c r="C94">
-        <v>0.1258404469558722</v>
+        <v>0.1206968281226404</v>
       </c>
       <c r="D94">
-        <v>0.02699667626502979</v>
+        <v>0.09345447712047458</v>
       </c>
       <c r="E94">
-        <v>0.03205017458446597</v>
+        <v>-0.03685086039274947</v>
       </c>
       <c r="F94">
-        <v>-0.3041228043701716</v>
+        <v>0.1589326762560709</v>
       </c>
       <c r="G94">
-        <v>-0.02434070551445655</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.2154598684872153</v>
+      </c>
+      <c r="H94">
+        <v>0.135963980179982</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.07630195091802564</v>
+        <v>0.06582661727829485</v>
       </c>
       <c r="C95">
-        <v>0.01352817997226601</v>
+        <v>0.03973295290421239</v>
       </c>
       <c r="D95">
-        <v>0.06562647693049177</v>
+        <v>0.07309526398115138</v>
       </c>
       <c r="E95">
-        <v>0.0785106411254821</v>
+        <v>-0.07263257850482736</v>
       </c>
       <c r="F95">
-        <v>0.06012338048970973</v>
+        <v>0.02984843433406747</v>
       </c>
       <c r="G95">
-        <v>-0.3334182175991762</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.06334174942441419</v>
+      </c>
+      <c r="H95">
+        <v>-0.002499072425227586</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1862320088961851</v>
+        <v>0.1725698766859383</v>
       </c>
       <c r="C98">
-        <v>0.03904694827739881</v>
+        <v>0.08807996019739146</v>
       </c>
       <c r="D98">
-        <v>0.05603020474557229</v>
+        <v>0.03262809736721172</v>
       </c>
       <c r="E98">
-        <v>-0.04280084619739469</v>
+        <v>-0.05670250090555513</v>
       </c>
       <c r="F98">
-        <v>0.05230292111365506</v>
+        <v>0.03238839652288895</v>
       </c>
       <c r="G98">
-        <v>0.3370486575826744</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.1546859882913279</v>
+      </c>
+      <c r="H98">
+        <v>-0.3730553478193446</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.001899598354527241</v>
+        <v>0.01354650523130545</v>
       </c>
       <c r="C101">
-        <v>0.03142303986717396</v>
+        <v>0.001637824886115642</v>
       </c>
       <c r="D101">
-        <v>0.007159320391369389</v>
+        <v>0.002781217827806499</v>
       </c>
       <c r="E101">
-        <v>0.1337666067994409</v>
+        <v>0.006031299998765972</v>
       </c>
       <c r="F101">
-        <v>0.1518212488890678</v>
+        <v>0.03725831883708693</v>
       </c>
       <c r="G101">
-        <v>-0.02160333114776578</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.09808604846161305</v>
+      </c>
+      <c r="H101">
+        <v>0.07460301721775103</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.09513643104235284</v>
+        <v>0.1062062975323541</v>
       </c>
       <c r="C102">
-        <v>0.02900157639119711</v>
+        <v>0.04649728869310991</v>
       </c>
       <c r="D102">
-        <v>0.01185336372565597</v>
+        <v>0.0594187387515204</v>
       </c>
       <c r="E102">
-        <v>0.06204454356129063</v>
+        <v>-0.001946918164632099</v>
       </c>
       <c r="F102">
-        <v>-0.1237914235167641</v>
+        <v>0.07116983270989373</v>
       </c>
       <c r="G102">
-        <v>-0.1002245567250878</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.09435268810558683</v>
+      </c>
+      <c r="H102">
+        <v>0.05336678881792493</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.02667937587233528</v>
+        <v>0.02237483135902525</v>
       </c>
       <c r="C103">
-        <v>0.01315305906300839</v>
+        <v>0.01104960680228895</v>
       </c>
       <c r="D103">
-        <v>0.01154730387637513</v>
+        <v>0.01210813798733199</v>
       </c>
       <c r="E103">
-        <v>0.004318920086149146</v>
+        <v>0.004859998742863164</v>
       </c>
       <c r="F103">
-        <v>-0.01808276101677436</v>
+        <v>0.01819315771317944</v>
       </c>
       <c r="G103">
-        <v>-0.03156596604781749</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.0067373061618997</v>
+      </c>
+      <c r="H103">
+        <v>0.01074572622049558</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.3721313767024459</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.9063560830300603</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.05973091693946314</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.02418415082792344</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.156731362287295</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>0.04036047866981071</v>
+      </c>
+      <c r="H104">
+        <v>0.03033723194293957</v>
       </c>
     </row>
   </sheetData>
